--- a/docentes/Avila Coronado Julieta - Estadisticos 20242.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>NIEVES</t>
+  </si>
+  <si>
+    <t>LUIS AARON</t>
   </si>
   <si>
     <t>MARIA DEL CARMEN</t>
@@ -962,7 +968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,30 +1003,30 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920081</v>
+        <v>23330051920313</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920113</v>
+        <v>23330051920081</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1029,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1038,12 +1044,12 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920155</v>
+        <v>23330051920113</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1052,15 +1058,38 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>23330051920155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Avila Coronado Julieta - Estadisticos 20242.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Mat</t>
   </si>
@@ -43,12 +43,18 @@
     <t>Promedio</t>
   </si>
   <si>
+    <t>Ingles II</t>
+  </si>
+  <si>
     <t>Ingles IV</t>
   </si>
   <si>
     <t>Formación socioemocional IV</t>
   </si>
   <si>
+    <t>2AEV</t>
+  </si>
+  <si>
     <t>4AEM</t>
   </si>
   <si>
@@ -82,31 +88,112 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARMAS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>VIVANCO</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>DORANTES</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
     <t>CRUZ</t>
   </si>
   <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
     <t>MOLINA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
     <t>NIEVES</t>
   </si>
   <si>
+    <t>JOSE GUSTAVO</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
     <t>LUIS AARON</t>
   </si>
   <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
     <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>LEVI SANTIAGO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
   </si>
   <si>
     <t>YAMILETH</t>
@@ -470,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,48 +597,48 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>95.83</v>
+        <v>52.78</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>94.12</v>
+        <v>95.83</v>
       </c>
       <c r="H3">
         <v>8.4</v>
@@ -559,13 +646,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -574,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>93.55</v>
+        <v>94.12</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -588,44 +675,70 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>93.55</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>95.83</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8.6</v>
       </c>
     </row>
@@ -636,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -676,48 +789,48 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
       <c r="F2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>87.5</v>
+        <v>72.22</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>94.12</v>
+        <v>87.5</v>
       </c>
       <c r="H3">
         <v>8.4</v>
@@ -725,13 +838,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -740,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>93.55</v>
+        <v>94.12</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -754,44 +867,70 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>93.55</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8.6</v>
       </c>
     </row>
@@ -802,7 +941,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,62 +981,62 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
       <c r="F2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>87.5</v>
+        <v>72.22</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>87.5</v>
+      </c>
+      <c r="H3">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>94.12</v>
-      </c>
-      <c r="H3">
-        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -906,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>93.55</v>
+        <v>94.12</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -920,44 +1059,70 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>93.55</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8.5</v>
       </c>
     </row>
@@ -968,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -980,45 +1145,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920313</v>
+        <v>24330051920304</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1026,16 +1191,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920081</v>
+        <v>24330051920305</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1044,21 +1209,21 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920113</v>
+        <v>24330051920113</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1067,29 +1232,236 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>23330051920313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>24330051920093</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>24330051920098</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>24330051920144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>24330051920143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>23330051920081</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>24330051920392</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>23330051920224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>23330051920113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>23330051920155</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
